--- a/public/excelTemplate/templateAccounting-Today.xlsx
+++ b/public/excelTemplate/templateAccounting-Today.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\perjokian\Monitoring_Transaksi_GSP\public\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aldi\Documents\Semester 6 KULIAH\Skripsi\Program\Monitoring_Transaksi_GSP\public\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37F97427-579E-42AF-AA51-E787CD1D4583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43296E93-8D60-4734-A47B-E1486657972B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{568A1B60-BB8B-42E0-8AB4-31CC469BE649}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{568A1B60-BB8B-42E0-8AB4-31CC469BE649}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Tanggal</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>PT. Gerbang Sinergi Prima</t>
-  </si>
-  <si>
-    <t>Fee GSP</t>
   </si>
 </sst>
 </file>
@@ -136,12 +133,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -154,6 +148,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,37 +467,38 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="15.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,14 +511,12 @@
       <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
